--- a/outputs-r202/o__RF39.xlsx
+++ b/outputs-r202/o__RF39.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>f__UBA660</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>f__UBA660</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>f__UBA660</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>f__UBA660</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>f__UBA660</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>f__UBA660</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>f__UBA660</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>f__UBA660</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>f__UBA660</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>f__UBA660</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -649,6 +704,11 @@
         <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>f__UBA660</t>
         </is>

--- a/outputs-r202/o__RF39.xlsx
+++ b/outputs-r202/o__RF39.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -464,21 +459,18 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG357.fasta</t>
+          <t>RUG530.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>3450.486807122075</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>f__UBA660</t>
         </is>
@@ -487,21 +479,18 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG530.fasta</t>
+          <t>RUG591.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>11029.99761819572</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>f__UBA660</t>
         </is>
@@ -510,21 +499,18 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG591.fasta</t>
+          <t>RUG594.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>3551.717772586602</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>f__UBA660</t>
         </is>
@@ -533,44 +519,38 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG594.fasta</t>
+          <t>RUG705.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>-1271.722072691366</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
+          <t>f__UBA660(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG705.fasta</t>
+          <t>RUG727.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>6385.3487251236</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>f__UBA660</t>
         </is>
@@ -579,21 +559,18 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG727.fasta</t>
+          <t>RUG793.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>18130.80467507385</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>f__UBA660</t>
         </is>
@@ -602,21 +579,18 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG793.fasta</t>
+          <t>RUG820.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>21435.34895983516</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>f__UBA660</t>
         </is>
@@ -625,21 +599,18 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG820.fasta</t>
+          <t>RUG832.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>5725.519969701298</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>f__UBA660</t>
         </is>
@@ -648,21 +619,18 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG832.fasta</t>
+          <t>RUG840.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+        <v>19170.29751393408</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>f__UBA660</t>
         </is>
@@ -671,44 +639,18 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG840.fasta</t>
+          <t>hRUG889.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>28457.46456298053</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>hRUG889.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>f__UBA660</t>
         </is>

--- a/outputs-r202/o__RF39.xlsx
+++ b/outputs-r202/o__RF39.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG530.fasta</t>
+          <t>RUG343.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3450.486807122075</v>
+        <v>12858.88548805533</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -479,11 +479,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG591.fasta</t>
+          <t>RUG357.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11029.99761819572</v>
+        <v>15085.80395249731</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -499,11 +499,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG594.fasta</t>
+          <t>RUG530.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3551.717772586602</v>
+        <v>3450.486807122075</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG705.fasta</t>
+          <t>RUG591.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1271.722072691366</v>
+        <v>11029.99761819572</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -532,18 +532,18 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>f__UBA660(reject)</t>
+          <t>f__UBA660</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG727.fasta</t>
+          <t>RUG594.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6385.3487251236</v>
+        <v>3551.717772586602</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -559,11 +559,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG793.fasta</t>
+          <t>RUG705.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18130.80467507385</v>
+        <v>-1271.722072691366</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -572,18 +572,18 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>f__UBA660</t>
+          <t>f__UBA660(reject)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG820.fasta</t>
+          <t>RUG727.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21435.34895983516</v>
+        <v>6385.3487251236</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -599,11 +599,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG832.fasta</t>
+          <t>RUG793.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5725.519969701298</v>
+        <v>18130.80467507385</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -619,11 +619,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG840.fasta</t>
+          <t>RUG820.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19170.29751393408</v>
+        <v>21435.34895983516</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -639,18 +639,58 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>RUG832.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5725.519969701298</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG840.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>19170.29751393408</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>hRUG889.fasta</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B13" t="n">
         <v>28457.46456298053</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>f__UBA660</t>
         </is>
